--- a/Datasets/annotated_dataset/tweets_session_2_2.xlsx
+++ b/Datasets/annotated_dataset/tweets_session_2_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markusbink/Documents/dev/Twitter_German_Federal_Election_Perception_2021/Datasets/annotated_dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nils_hellwig/Desktop/Studium/Masterstudium WS 2022:23/DH Projekt/Twitter_German_Federal_Election_Perception_2021/Datasets/annotated_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D205CD-280C-4B45-8EC0-C19CF73CC37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15EB236-A3CA-BB46-9AA4-EDFB284919D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="35840" windowHeight="21040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7007" uniqueCount="4070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7008" uniqueCount="4070">
   <si>
     <t>id</t>
   </si>
@@ -12601,8 +12601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A989" zoomScale="131" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E1001" sqref="E1001"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="131" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E173" sqref="E173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17583,6 +17583,9 @@
       <c r="D172" t="s">
         <v>743</v>
       </c>
+      <c r="E172" t="s">
+        <v>4067</v>
+      </c>
       <c r="F172" s="3" t="s">
         <v>744</v>
       </c>
